--- a/src/assets/excel/GASTOS_EJECUTOR.xlsx
+++ b/src/assets/excel/GASTOS_EJECUTOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documents\GitHub\SIEFI\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07ED769-DB8C-492C-92D6-EEF8DA710717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDC665-D47E-4E98-9F7E-CB60BC72EA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFDB293A-344A-416C-80DB-1E7CB597A30E}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>RUBRO</t>
   </si>
   <si>
-    <t>PROVIO .I.</t>
-  </si>
-  <si>
     <t>FECHA DE PAGO</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>EJECUTOR FISCAR</t>
-  </si>
-  <si>
     <t>C. NATALIA JASMIN SUÁREZ MARTÍNEZ</t>
   </si>
   <si>
@@ -120,13 +114,19 @@
   </si>
   <si>
     <t>TITULAR DE LA SUBDELEGACIÓN</t>
+  </si>
+  <si>
+    <t>Rev. Prov. / O .I.</t>
+  </si>
+  <si>
+    <t>EJECUTOR FISCAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,15 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,20 +228,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -241,13 +237,28 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +704,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +713,7 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="41.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
@@ -713,250 +724,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="2" t="s">
-        <v>20</v>
+      <c r="K11" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="I16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A6:H7"/>
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="E12:F14"/>
@@ -976,6 +973,8 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
